--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2321</v>
+        <v>2208.028465307524</v>
       </c>
       <c r="C2">
-        <v>1343</v>
+        <v>1298.338748465416</v>
       </c>
       <c r="D2">
-        <v>969</v>
+        <v>952.8587701285444</v>
       </c>
       <c r="E2">
-        <v>843</v>
+        <v>830.5100773001739</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2133</v>
+        <v>2051.863742562773</v>
       </c>
       <c r="C3">
-        <v>1223</v>
+        <v>1183.083383140179</v>
       </c>
       <c r="D3">
-        <v>910</v>
+        <v>894.6238311929591</v>
       </c>
       <c r="E3">
-        <v>807</v>
+        <v>795.2769952160717</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2355</v>
+        <v>2218.78299239892</v>
       </c>
       <c r="C4">
-        <v>1378</v>
+        <v>1319.607786861474</v>
       </c>
       <c r="D4">
-        <v>1017</v>
+        <v>995.0177761066858</v>
       </c>
       <c r="E4">
-        <v>906</v>
+        <v>890.9557820942919</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>823</v>
+        <v>795.3625414706451</v>
       </c>
       <c r="C5">
-        <v>500</v>
+        <v>475.4013437469265</v>
       </c>
       <c r="D5">
-        <v>401</v>
+        <v>390.6279785442163</v>
       </c>
       <c r="E5">
-        <v>376</v>
+        <v>370.479860731409</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>205</v>
+        <v>204.0546052485936</v>
       </c>
       <c r="C6">
-        <v>126</v>
+        <v>125.1759797846952</v>
       </c>
       <c r="D6">
-        <v>91</v>
+        <v>90.69209456185537</v>
       </c>
       <c r="E6">
-        <v>76</v>
+        <v>76.02898833840067</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>28.64197684667349</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>18.29898074934333</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>15.00777732763962</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>13.6517290310976</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2617</v>
+        <v>2602.825699863444</v>
       </c>
       <c r="C8">
-        <v>1639</v>
+        <v>1617.062296026409</v>
       </c>
       <c r="D8">
-        <v>1157</v>
+        <v>1151.048916303432</v>
       </c>
       <c r="E8">
-        <v>946</v>
+        <v>945.8714456117903</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>502</v>
+        <v>497.3364501225034</v>
       </c>
       <c r="C9">
-        <v>313</v>
+        <v>308.280478403597</v>
       </c>
       <c r="D9">
-        <v>213</v>
+        <v>212.7743839416862</v>
       </c>
       <c r="E9">
-        <v>173</v>
+        <v>172.5767032627227</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>415</v>
+        <v>389.6230887972482</v>
       </c>
       <c r="C10">
-        <v>275</v>
+        <v>262.5000129926964</v>
       </c>
       <c r="D10">
-        <v>263</v>
+        <v>253.9793968266577</v>
       </c>
       <c r="E10">
-        <v>263</v>
+        <v>255.7124706025495</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>57.99316334920526</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>36.93277136971744</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>36.98338595019786</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>41.33569351649567</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>34</v>
+        <v>31.17083543065311</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>24.4611878464834</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>37.26329659219444</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>46.59883366587204</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>164</v>
+        <v>151.1694474754235</v>
       </c>
       <c r="C13">
-        <v>110</v>
+        <v>104.0276315578221</v>
       </c>
       <c r="D13">
-        <v>117</v>
+        <v>112.777791526568</v>
       </c>
       <c r="E13">
-        <v>125</v>
+        <v>121.143424118054</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2208.028465307524</v>
+        <v>2208.028465307525</v>
       </c>
       <c r="C2">
-        <v>1298.338748465416</v>
+        <v>1298.338748465417</v>
       </c>
       <c r="D2">
-        <v>952.8587701285444</v>
+        <v>952.8587701285443</v>
       </c>
       <c r="E2">
-        <v>830.5100773001739</v>
+        <v>830.5100773001736</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2051.863742562773</v>
+        <v>2051.863742562775</v>
       </c>
       <c r="C3">
-        <v>1183.083383140179</v>
+        <v>1183.083383140177</v>
       </c>
       <c r="D3">
-        <v>894.6238311929591</v>
+        <v>894.6238311929585</v>
       </c>
       <c r="E3">
-        <v>795.2769952160717</v>
+        <v>795.2769952160724</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,10 +422,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2218.78299239892</v>
+        <v>2218.782992398921</v>
       </c>
       <c r="C4">
-        <v>1319.607786861474</v>
+        <v>1319.607786861475</v>
       </c>
       <c r="D4">
         <v>995.0177761066858</v>
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>795.3625414706451</v>
+        <v>795.3625414706461</v>
       </c>
       <c r="C5">
-        <v>475.4013437469265</v>
+        <v>475.4013437469266</v>
       </c>
       <c r="D5">
-        <v>390.6279785442163</v>
+        <v>390.6279785442159</v>
       </c>
       <c r="E5">
-        <v>370.479860731409</v>
+        <v>370.4798607314091</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>204.0546052485936</v>
+        <v>204.0546052485938</v>
       </c>
       <c r="C6">
-        <v>125.1759797846952</v>
+        <v>125.1759797846951</v>
       </c>
       <c r="D6">
-        <v>90.69209456185537</v>
+        <v>90.69209456185527</v>
       </c>
       <c r="E6">
         <v>76.02898833840067</v>
@@ -476,7 +476,7 @@
         <v>28.64197684667349</v>
       </c>
       <c r="C7">
-        <v>18.29898074934333</v>
+        <v>18.29898074934331</v>
       </c>
       <c r="D7">
         <v>15.00777732763962</v>
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2602.825699863444</v>
+        <v>2602.825699863442</v>
       </c>
       <c r="C8">
-        <v>1617.062296026409</v>
+        <v>1617.062296026407</v>
       </c>
       <c r="D8">
-        <v>1151.048916303432</v>
+        <v>1151.048916303433</v>
       </c>
       <c r="E8">
-        <v>945.8714456117903</v>
+        <v>945.8714456117898</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,13 +507,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>497.3364501225034</v>
+        <v>497.336450122503</v>
       </c>
       <c r="C9">
-        <v>308.280478403597</v>
+        <v>308.2804784035971</v>
       </c>
       <c r="D9">
-        <v>212.7743839416862</v>
+        <v>212.7743839416865</v>
       </c>
       <c r="E9">
         <v>172.5767032627227</v>
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>389.6230887972482</v>
+        <v>389.6230887972488</v>
       </c>
       <c r="C10">
-        <v>262.5000129926964</v>
+        <v>262.5000129926961</v>
       </c>
       <c r="D10">
-        <v>253.9793968266577</v>
+        <v>253.9793968266578</v>
       </c>
       <c r="E10">
-        <v>255.7124706025495</v>
+        <v>255.7124706025494</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>57.99316334920526</v>
+        <v>57.9931633492053</v>
       </c>
       <c r="C11">
-        <v>36.93277136971744</v>
+        <v>36.93277136971746</v>
       </c>
       <c r="D11">
-        <v>36.98338595019786</v>
+        <v>36.98338595019789</v>
       </c>
       <c r="E11">
-        <v>41.33569351649567</v>
+        <v>41.3356935164956</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>31.17083543065311</v>
+        <v>31.17083543065318</v>
       </c>
       <c r="C12">
-        <v>24.4611878464834</v>
+        <v>24.46118784648347</v>
       </c>
       <c r="D12">
-        <v>37.26329659219444</v>
+        <v>37.26329659219451</v>
       </c>
       <c r="E12">
-        <v>46.59883366587204</v>
+        <v>46.59883366587201</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,13 +575,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>151.1694474754235</v>
+        <v>151.1694474754234</v>
       </c>
       <c r="C13">
-        <v>104.0276315578221</v>
+        <v>104.0276315578219</v>
       </c>
       <c r="D13">
-        <v>112.777791526568</v>
+        <v>112.7777915265681</v>
       </c>
       <c r="E13">
         <v>121.143424118054</v>
